--- a/Resume.xlsx
+++ b/Resume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe3485765cdf3481/Documentos/skin_cancer_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4E7ACC0-2E35-4044-AAC5-03E004218717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{B4E7ACC0-2E35-4044-AAC5-03E004218717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E923D9-03AE-4581-AA48-05C12390A5B1}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{50BB4A95-EB5A-4B38-966D-C213D24AE875}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50BB4A95-EB5A-4B38-966D-C213D24AE875}"/>
   </bookViews>
   <sheets>
     <sheet name="Resume" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'7PC'!$A$1:$C$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ISCI!$A$1:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PAD-UFES-20'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resume!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>7pc</t>
   </si>
@@ -197,6 +198,15 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>nevus (non-cancer)</t>
+  </si>
+  <si>
+    <t>actinic keratosis (pre-cancer)</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -212,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,32 +235,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,18 +244,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,6 +282,1074 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>DataSet Composition</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resume!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resume!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>nevus (non-cancer)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>melanoma</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>basal cell carcinoma</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>actinic keratosis (pre-cancer)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>squamous cell carcinoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resume!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8047-4B01-8AFC-BC47CC26393C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="964949872"/>
+        <c:axId val="399911632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="964949872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Types</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51826649086429122"/>
+              <c:y val="0.93175595205324935"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399911632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="399911632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Total Images</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3687089425807354E-2"/>
+              <c:y val="0.39073436802621292"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964949872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121038</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>593480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09481B0-7424-B01D-131E-A790FEB7F0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A627F8-EC59-4939-8D9B-36F425DB7E7A}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,191 +1663,147 @@
     <col min="4" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1">
+        <f>ISCI!B2</f>
+        <v>31626</v>
+      </c>
+      <c r="C2" s="1">
+        <f>'7PC'!B2+'7PC'!B4+'7PC'!B9+'7PC'!B11</f>
+        <v>539</v>
+      </c>
+      <c r="D2" s="1">
+        <f>'PAD-UFES-20'!B4</f>
+        <v>244</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2+C2+D2</f>
+        <v>32409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
         <f>ISCI!B4+ISCI!B24</f>
         <v>6705</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="1">
         <f>'7PC'!B3+'7PC'!B5+'7PC'!B6+'7PC'!B12+'7PC'!B20+'7PC'!B21</f>
         <v>252</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="1">
         <f>'PAD-UFES-20'!B7</f>
         <v>52</v>
       </c>
-      <c r="E2">
-        <f>B2+C2+D2</f>
+      <c r="E3" s="1">
+        <f>B3+C3+D3</f>
         <v>7009</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="1">
         <f>ISCI!B5</f>
         <v>3869</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="1">
         <f>'7PC'!B8</f>
         <v>42</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="1">
         <f>'PAD-UFES-20'!B2</f>
         <v>845</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">B3+C3+D3</f>
+      <c r="E4" s="1">
+        <f>B4+C4+D4</f>
         <v>4756</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2">
+        <f>ISCI!B8</f>
+        <v>1011</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'PAD-UFES-20'!B3</f>
+        <v>730</v>
+      </c>
+      <c r="E5" s="2">
+        <f>B5+C5+D5</f>
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="1">
         <f>ISCI!B9</f>
         <v>879</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="1">
         <f>'PAD-UFES-20'!B6</f>
         <v>192</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+      <c r="E6" s="1">
+        <f>B6+C6+D6</f>
         <v>1071</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <f>ISCI!B28</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>'7PC'!B18</f>
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="O7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="S8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="S9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="S10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>46986</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{49A627F8-EC59-4939-8D9B-36F425DB7E7A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -791,7 +1812,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,14 +2156,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A3:A21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1391,14 +2412,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/Resume.xlsx
+++ b/Resume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe3485765cdf3481/Documentos/skin_cancer_detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{B4E7ACC0-2E35-4044-AAC5-03E004218717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E923D9-03AE-4581-AA48-05C12390A5B1}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{B4E7ACC0-2E35-4044-AAC5-03E004218717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E66CF8DA-0DD8-42D0-A130-E371BBF85DA4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50BB4A95-EB5A-4B38-966D-C213D24AE875}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8928" activeTab="2" xr2:uid="{50BB4A95-EB5A-4B38-966D-C213D24AE875}"/>
   </bookViews>
   <sheets>
     <sheet name="Resume" sheetId="1" r:id="rId1"/>
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A627F8-EC59-4939-8D9B-36F425DB7E7A}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1811,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCD120-EE5A-40A0-A76F-5E710B29F739}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2153,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55697B35-A703-4600-8B9D-E62346DA1C91}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2395,6 +2395,12 @@
       </c>
       <c r="C21" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f>SUM(B2:B22)</f>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
